--- a/server/config/battle.xlsx
+++ b/server/config/battle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="16220" yWindow="1720" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>pos_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,13 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -490,13 +496,19 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,13 +518,19 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -522,13 +540,19 @@
       <c r="C5">
         <v>-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -538,23 +562,35 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -564,18 +600,27 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -585,18 +630,27 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -606,18 +660,27 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -627,18 +690,27 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -648,13 +720,19 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -664,25 +742,40 @@
       <c r="C25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
+      </c>
+      <c r="D29">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
